--- a/biology/Botanique/Paphinia_posadarum/Paphinia_posadarum.xlsx
+++ b/biology/Botanique/Paphinia_posadarum/Paphinia_posadarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia posadarum Dodson &amp; R.Escobar est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et appartenant à la sous-tribu des Stanhopeinae.
 Proche de Paphinia benzingii mais avec des fleurs beaucoup plus grandes.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nommée en l’honneur de Jaime Posada et de son épouse Ligia Moreno de Posada, propriétaires de l’exploitation horticole Colomborquídeas à Medellin (depuis 1972), pour leur contribution à la connaissance des orchidées andines.
 </t>
@@ -543,7 +557,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Similis P.benzingii sed floribus multo majoribus, duobus ciliis carnosis separatis a margine unguis et lobo apicali obtrullato atque papilloso-rugoso.
 Dodson &amp; R.Escobar 1993. Orquideología 18 (3) : 229-236.</t>
@@ -574,7 +590,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante type a été récoltée en 1988 dans département d’El Chocó en Colombie, près de Carmen de Atrato à 1 500 m d'altitude. La première floraison en culture a eu lieu en août 1992. Colombie, Équateur.
 </t>
@@ -605,7 +623,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune information disponible.
 </t>
